--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_origin_gaussian_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_origin_gaussian_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="origin_gaussian_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="origin_gaussian_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="origin_gaussian_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="origin_gaussian_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="origin_gaussian_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>76.79677159837023</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.623728184774518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7679677159837023</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7603675838870199</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>69.77430600610732</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7404713524815937</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6977430600610732</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6937921040726395</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>83.01282883069923</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4238971506555875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8301282883069924</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.829323703941119</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>71.25866140710561</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8487462325642505</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7125866140710559</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7035582608536805</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.81438420747585</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.128171318847065</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6281438420747584</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5901459150622481</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>71.48349034161194</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9576221910615761</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7148349034161195</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6956497935062307</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>64.49164785162502</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.170079081133008</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6449164785162502</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6137344687285869</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>61.47535878338048</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9685137689889718</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6147535878338048</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6045233501659348</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>67.60240140485645</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8230347552647194</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6760240140485645</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6426762056486999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74.18749297139249</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6194752849560852</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7418749297139249</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7318770296413959</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>68.01624581527521</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9193799981614574</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6801624581527521</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6709656168082418</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>72.56386300919557</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7466834730158249</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7256386300919557</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7175282023388846</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.18669711675707</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2142115163151175</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9218669711675707</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9214303247719717</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>80.65277381292226</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5632478523291259</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8065277381292226</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7858458909535233</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.43585152120693</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2127737662599733</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9443585152120694</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9434849378084043</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>74.0501849785321</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7306690617872582</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7405018497853212</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.726993559212572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>53.49734859298091</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.090414049724738</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5349734859298091</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5182912975360969</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>61.84231697506034</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8320710589488348</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6184231697506034</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5868303384634117</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>68.52066194344242</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.757465418552359</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6852066194344242</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6769814420017688</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>56.92869315478507</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.193577040731907</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5692869315478507</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5177314799980063</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.58340470073271</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9973624039441347</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6158340470073271</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5717291702624619</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60.18988053529874</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9264123807350794</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6018988053529875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6004495272151684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>44.85315616917102</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.46791806196173</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4485315616917102</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3932233536201055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>56.65196065709911</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9665944159030915</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5665196065709911</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5502243823679102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>53.91690239534944</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.026424790422122</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5391690239534943</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5027324461878937</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>55.00419553802368</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.046629441995174</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5500419553802368</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5288477877916982</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.98092544053149</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.04048747147123</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5498092544053149</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5330302618874804</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>58.33787489511155</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9023183077573776</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5833787489511154</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5728433655155307</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>74.12538170745422</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6945900311072667</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7412538170745422</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7363763398255215</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78.17481120078892</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4673144168540603</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7817481120078893</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7731324279378898</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>90.07699028538309</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2753596810468783</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9007699028538309</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8999851468045892</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61.91230027941419</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9123292647437322</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6191230027941419</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5974939178277022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_origin_gaussian_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_origin_gaussian_kernel.xlsx
@@ -10,8 +10,10 @@
     <sheet name="origin_gaussian_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="origin_gaussian_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="origin_gaussian_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="origin_gaussian_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="origin_gaussian_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="origin_gaussian_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="origin_gaussian_sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="origin_gaussian_sr_0.15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="origin_gaussian_sr_0.1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.10324483775811</v>
+        <v>96.31268436578171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1300164432078115</v>
+        <v>0.09936687210235201</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9510324483775812</v>
+        <v>0.9631268436578171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9489039336647138</v>
+        <v>0.9627728146095746</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.83567331897333</v>
+        <v>94.04164395885778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22120761147609</v>
+        <v>0.1894382931652733</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9383567331897336</v>
+        <v>0.9404164395885777</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9339864921202276</v>
+        <v>0.9380875237545696</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.047197640118</v>
+        <v>96.69616519174042</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1371806180730346</v>
+        <v>0.1125345027930204</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9604719764011799</v>
+        <v>0.9669616519174042</v>
       </c>
       <c r="E4" t="n">
-        <v>0.960034762780826</v>
+        <v>0.9659629438429486</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.39233038348083</v>
+        <v>93.83480825958702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1648795330846042</v>
+        <v>0.169186145994657</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9339233038348083</v>
+        <v>0.9383480825958703</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9289624356547671</v>
+        <v>0.9351261434556832</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.19640308307166</v>
+        <v>82.47960622496734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4181605489497694</v>
+        <v>0.4732622910717812</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8419640308307166</v>
+        <v>0.8247960622496734</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8258083437474928</v>
+        <v>0.8070775901820237</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.04383255910518</v>
+        <v>90.88668587098505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5426849604933522</v>
+        <v>0.2438446734954293</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8704383255910517</v>
+        <v>0.9088668587098503</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8497346836697522</v>
+        <v>0.8981974353949603</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.21533923303835</v>
+        <v>93.09734513274336</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1784400129157196</v>
+        <v>0.1792407703544692</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9321533923303835</v>
+        <v>0.9309734513274336</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9279179774860594</v>
+        <v>0.9307260118297606</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.20978555177813</v>
+        <v>91.56480592392668</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2053952880987708</v>
+        <v>0.2145800659335995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9120978555177814</v>
+        <v>0.9156480592392668</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9077299411493929</v>
+        <v>0.9133066566116119</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.76991150442478</v>
+        <v>93.06784660766962</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2284420791256707</v>
+        <v>0.2007071452690676</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9176991150442477</v>
+        <v>0.9306784660766961</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9095066228951723</v>
+        <v>0.9281481607752859</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.53097345132743</v>
+        <v>90.02949852507375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2418634663253821</v>
+        <v>0.2932084223920053</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9053097345132743</v>
+        <v>0.9002949852507374</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8967971447128532</v>
+        <v>0.888421868019017</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.88807861659703</v>
+        <v>82.68436578171091</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6616859026840151</v>
+        <v>0.6525227881184341</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8188807861659703</v>
+        <v>0.8268436578171091</v>
       </c>
       <c r="E12" t="n">
-        <v>0.807330375591822</v>
+        <v>0.8142763101901396</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.04424778761062</v>
+        <v>84.98525073746313</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6566167383818537</v>
+        <v>0.6164358557343803</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8504424778761062</v>
+        <v>0.8498525073746312</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8357915692461104</v>
+        <v>0.8358802765208726</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.99705014749262</v>
+        <v>99.08554572271387</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04138674126460273</v>
+        <v>0.03082503980620383</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9899705014749263</v>
+        <v>0.9908554572271386</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9899616368057116</v>
+        <v>0.9908672179237346</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.58702064896755</v>
+        <v>99.64601769911505</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01483624036980018</v>
+        <v>0.009825315161958297</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9958702064896755</v>
+        <v>0.9964601769911503</v>
       </c>
       <c r="E15" t="n">
-        <v>0.995888773639814</v>
+        <v>0.9964637898187853</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.31563421828909</v>
+        <v>96.4306784660767</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05213916546206955</v>
+        <v>0.0863059315526172</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9731563421828909</v>
+        <v>0.9643067846607669</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9725382317523019</v>
+        <v>0.9635979985017039</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.94511486546885</v>
+        <v>92.32286323122749</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2596623566608364</v>
+        <v>0.2380856075296832</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9194511486546885</v>
+        <v>0.9232286323122748</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9127261949944677</v>
+        <v>0.9179275160953781</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +823,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.6434138703622</v>
+        <v>87.84678068149378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3353560018445326</v>
+        <v>0.3102687561205433</v>
       </c>
       <c r="D2" t="n">
-        <v>0.886434138703622</v>
+        <v>0.8784678068149379</v>
       </c>
       <c r="E2" t="n">
-        <v>0.881597965979298</v>
+        <v>0.862408298313707</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +842,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.98435107570135</v>
+        <v>85.90576043045355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.447548384112694</v>
+        <v>0.3518780053127557</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8098435107570134</v>
+        <v>0.8590576043045355</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7956163457797182</v>
+        <v>0.8577169355930859</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.41332537478698</v>
+        <v>90.50182095000822</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2589138260881251</v>
+        <v>0.2181328480044613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9041332537478699</v>
+        <v>0.905018209500082</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9052948203549288</v>
+        <v>0.904713733717452</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +880,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.55022967326707</v>
+        <v>86.6670126904212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3322408976382576</v>
+        <v>0.3625818004676451</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8655022967326707</v>
+        <v>0.866670126904212</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8618902562998828</v>
+        <v>0.8597178155877077</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +899,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.96157406205936</v>
+        <v>70.72526578949645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9394428850326222</v>
+        <v>0.724791368516162</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6796157406205936</v>
+        <v>0.7072526578949645</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6594841309065507</v>
+        <v>0.687677680470731</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +918,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.75670204759557</v>
+        <v>83.1363593110667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4934642269896964</v>
+        <v>0.4545401212448875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8475670204759556</v>
+        <v>0.8313635931106671</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8330625600124322</v>
+        <v>0.8267849696171332</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +937,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.45566138115382</v>
+        <v>86.04737065199527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4390810473356396</v>
+        <v>0.3754936080348368</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8445566138115381</v>
+        <v>0.8604737065199526</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8433036152076585</v>
+        <v>0.8513944864305938</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +956,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.85111462901928</v>
+        <v>90.29602332200105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2727997443832768</v>
+        <v>0.2347152716038787</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8885111462901929</v>
+        <v>0.9029602332200106</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8880260411738587</v>
+        <v>0.9031756028776095</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +975,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.57018659330963</v>
+        <v>89.88217891158229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4843741606494101</v>
+        <v>0.2556729026837274</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8357018659330964</v>
+        <v>0.8988217891158229</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8324658350091756</v>
+        <v>0.8950126853826179</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +994,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.36057405340877</v>
+        <v>83.2745092950631</v>
       </c>
       <c r="C11" t="n">
-        <v>0.476348142393787</v>
+        <v>0.4418033220916793</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8236057405340876</v>
+        <v>0.832745092950631</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8134644305873906</v>
+        <v>0.8234601243529471</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1013,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.53201152259103</v>
+        <v>80.79646017699115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.752325300272787</v>
+        <v>0.703043344229809</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8053201152259103</v>
+        <v>0.8079646017699116</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7994317307795601</v>
+        <v>0.8034052706184408</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1032,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.41436344605057</v>
+        <v>81.44542772861357</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6036622400492585</v>
+        <v>0.5108126506228776</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8041436344605056</v>
+        <v>0.8144542772861356</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7928155440428639</v>
+        <v>0.8098134965349238</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1051,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.46017699115045</v>
+        <v>94.63126843657817</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1031495023151365</v>
+        <v>0.1399810051718911</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9646017699115044</v>
+        <v>0.9463126843657816</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9647947878197272</v>
+        <v>0.9455251958019872</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1070,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.5693215339233</v>
+        <v>93.06784660766962</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1525043114221565</v>
+        <v>0.1636844862491822</v>
       </c>
       <c r="D15" t="n">
-        <v>0.935693215339233</v>
+        <v>0.9306784660766961</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9335216692647876</v>
+        <v>0.9312771769603809</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1089,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.46017699115045</v>
+        <v>95.01474926253687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09630688063868244</v>
+        <v>0.1246032978469733</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9646017699115044</v>
+        <v>0.9501474926253687</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9637210836856711</v>
+        <v>0.9488017486089223</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1108,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.73221221636867</v>
+        <v>86.61592228306475</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4125011700777375</v>
+        <v>0.3581335192134207</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8573221221636866</v>
+        <v>0.8661592228306473</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8512327211269003</v>
+        <v>0.860725681391216</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1173,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.34615351343869</v>
+        <v>84.36768484156437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.370896303288949</v>
+        <v>0.3996756616126125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8534615351343871</v>
+        <v>0.8436768484156438</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8504037291454084</v>
+        <v>0.8395572886443328</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1192,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.51580030969126</v>
+        <v>81.90140053114646</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5580950070774027</v>
+        <v>0.4370524839032441</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7651580030969126</v>
+        <v>0.8190140053114646</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7503221839073799</v>
+        <v>0.8198806170890665</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.05864237579911</v>
+        <v>86.66805076168478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2865937635263739</v>
+        <v>0.3370816904896249</v>
       </c>
       <c r="D4" t="n">
-        <v>0.890586423757991</v>
+        <v>0.866680507616848</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8906566336411329</v>
+        <v>0.8665417405629373</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.61927871348368</v>
+        <v>68.68908900596026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6725642688572406</v>
+        <v>1.255852561071515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7861927871348369</v>
+        <v>0.6868908900596026</v>
       </c>
       <c r="E5" t="n">
-        <v>0.768390573085308</v>
+        <v>0.6495560220114298</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1249,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.34105831365324</v>
+        <v>65.69191775015355</v>
       </c>
       <c r="C6" t="n">
-        <v>1.014283882252251</v>
+        <v>1.003429519183313</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6634105831365323</v>
+        <v>0.6569191775015355</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6256856381038418</v>
+        <v>0.6226164508771548</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1268,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.98274206524277</v>
+        <v>78.25552124153323</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5966866499744355</v>
+        <v>0.6874891336386403</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7498274206524278</v>
+        <v>0.7825552124153323</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7476833116761833</v>
+        <v>0.7695042312460832</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1287,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.63748821356586</v>
+        <v>74.53031600619383</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7073799862836798</v>
+        <v>0.7176069212107299</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7363748821356586</v>
+        <v>0.7453031600619383</v>
       </c>
       <c r="E8" t="n">
-        <v>0.716974533604119</v>
+        <v>0.7433500108742435</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1306,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79.99455012586614</v>
+        <v>77.85300910907533</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5060091955432047</v>
+        <v>0.5517945053599154</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7999455012586614</v>
+        <v>0.7785300910907533</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7982827415814321</v>
+        <v>0.7756663889107454</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1325,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.77908113391985</v>
+        <v>83.45997802749159</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4238767864803473</v>
+        <v>0.3998019586627682</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8177908113391984</v>
+        <v>0.8345997802749159</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8128410513060584</v>
+        <v>0.8323707480830329</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1344,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.29930189707524</v>
+        <v>82.7449199387538</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5375608545029535</v>
+        <v>0.4261068766514654</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7929930189707524</v>
+        <v>0.8274491993875379</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7881803425465186</v>
+        <v>0.8257926058818585</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1363,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.17783890864108</v>
+        <v>73.48774643379268</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6048630713029222</v>
+        <v>0.7053744023355345</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7817783890864108</v>
+        <v>0.7348774643379268</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7770574851100989</v>
+        <v>0.7272658346873719</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1382,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.37789254232304</v>
+        <v>78.36140451041965</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8119473400525749</v>
+        <v>0.5851064544171095</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7437789254232303</v>
+        <v>0.7836140451041964</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7317416729980839</v>
+        <v>0.7768012274792889</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1401,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>95.72271386430678</v>
+        <v>94.95575221238938</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1258504676205727</v>
+        <v>0.1337370583680846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9572271386430679</v>
+        <v>0.9495575221238937</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9573924193509509</v>
+        <v>0.9497360771350178</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1420,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.08634157734929</v>
+        <v>89.67655429545239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5983524164606934</v>
+        <v>0.2651709976660641</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8108634157734927</v>
+        <v>0.8967655429545239</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7937612344073243</v>
+        <v>0.8913475806043827</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1439,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.905604719764</v>
+        <v>98.02377183193626</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05935711240211579</v>
+        <v>0.07188867205986753</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9790560471976402</v>
+        <v>0.9802377183193626</v>
       </c>
       <c r="E16" t="n">
-        <v>0.97904245735821</v>
+        <v>0.9801499396144889</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1458,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>80.85629921827466</v>
+        <v>81.24447443316986</v>
       </c>
       <c r="C17" t="n">
-        <v>0.524954473708381</v>
+        <v>0.5318112597753659</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8085629921827466</v>
+        <v>0.8124447443316982</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7992277338548033</v>
+        <v>0.8046757842467623</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1523,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.79677159837023</v>
+        <v>77.73241983062137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.623728184774518</v>
+        <v>0.7314724500358959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7679677159837023</v>
+        <v>0.7773241983062137</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7603675838870199</v>
+        <v>0.7669207395962674</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1542,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.77430600610732</v>
+        <v>75.54840439796192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7404713524815937</v>
+        <v>0.6198138218256645</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6977430600610732</v>
+        <v>0.7554840439796192</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6937921040726395</v>
+        <v>0.7421831066378453</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1561,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.01282883069923</v>
+        <v>87.0832792671217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4238971506555875</v>
+        <v>0.3136282227069993</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8301282883069924</v>
+        <v>0.8708327926712169</v>
       </c>
       <c r="E4" t="n">
-        <v>0.829323703941119</v>
+        <v>0.8712073750320816</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1580,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.25866140710561</v>
+        <v>77.93942854176939</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8487462325642505</v>
+        <v>0.6221429999219253</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7125866140710559</v>
+        <v>0.779394285417694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7035582608536805</v>
+        <v>0.7637581176825929</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1599,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.81438420747585</v>
+        <v>66.07124629105788</v>
       </c>
       <c r="C6" t="n">
-        <v>1.128171318847065</v>
+        <v>0.9877400983745852</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6281438420747584</v>
+        <v>0.6607124629105788</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5901459150622481</v>
+        <v>0.6232855206515657</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1618,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.48349034161194</v>
+        <v>74.82902101229249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9576221910615761</v>
+        <v>0.6044028174869406</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7148349034161195</v>
+        <v>0.748290210122925</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6956497935062307</v>
+        <v>0.7444950460864116</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1637,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.49164785162502</v>
+        <v>76.80421110909263</v>
       </c>
       <c r="C8" t="n">
-        <v>1.170079081133008</v>
+        <v>0.5803542713324228</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6449164785162502</v>
+        <v>0.7680421110909263</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6137344687285869</v>
+        <v>0.7538868495553255</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1656,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.47535878338048</v>
+        <v>76.12418792550109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9685137689889718</v>
+        <v>0.5832323122614373</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6147535878338048</v>
+        <v>0.7612418792550109</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6045233501659348</v>
+        <v>0.7574566664128505</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1675,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.60240140485645</v>
+        <v>80.89170321542574</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8230347552647194</v>
+        <v>0.4610396889659266</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6760240140485645</v>
+        <v>0.8089170321542575</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6426762056486999</v>
+        <v>0.8068740528093423</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1694,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.18749297139249</v>
+        <v>77.9111410998365</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6194752849560852</v>
+        <v>0.5933925743059565</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7418749297139249</v>
+        <v>0.7791114109983651</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7318770296413959</v>
+        <v>0.7654630979418309</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1713,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.01624581527521</v>
+        <v>73.89934168980702</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9193799981614574</v>
+        <v>0.6916920234293987</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6801624581527521</v>
+        <v>0.7389934168980701</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6709656168082418</v>
+        <v>0.7389753480393276</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1732,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.56386300919557</v>
+        <v>76.11778648604226</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7466834730158249</v>
+        <v>0.7424916718776028</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7256386300919557</v>
+        <v>0.7611778648604227</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7175282023388846</v>
+        <v>0.7439633466217452</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1751,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.18669711675707</v>
+        <v>93.77581120943952</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2142115163151175</v>
+        <v>0.1868252053041942</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9218669711675707</v>
+        <v>0.9377581120943953</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9214303247719717</v>
+        <v>0.9365776163790851</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.65277381292226</v>
+        <v>81.48167371690067</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5632478523291259</v>
+        <v>0.5870015601802152</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8065277381292226</v>
+        <v>0.8148167371690066</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7858458909535233</v>
+        <v>0.7940308359098381</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1789,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.43585152120693</v>
+        <v>95.72392494744764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2127737662599733</v>
+        <v>0.1406134611320643</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9443585152120694</v>
+        <v>0.9572392494744765</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9434849378084043</v>
+        <v>0.9559764280576347</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1808,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74.0501849785321</v>
+        <v>79.46223871602119</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7306690617872582</v>
+        <v>0.5630562119427486</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7405018497853212</v>
+        <v>0.7946223871602119</v>
       </c>
       <c r="E17" t="n">
-        <v>0.726993559212572</v>
+        <v>0.7843369431609163</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1873,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.49734859298091</v>
+        <v>77.98242199326984</v>
       </c>
       <c r="C2" t="n">
-        <v>1.090414049724738</v>
+        <v>0.623024994507432</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5349734859298091</v>
+        <v>0.7798242199326983</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5182912975360969</v>
+        <v>0.775099187131701</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.84231697506034</v>
+        <v>70.267303350375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8320710589488348</v>
+        <v>0.811375075345859</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6184231697506034</v>
+        <v>0.7026730335037501</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5868303384634117</v>
+        <v>0.6857766846830488</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1911,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.52066194344242</v>
+        <v>84.66595731796988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.757465418552359</v>
+        <v>0.4043479694674413</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6852066194344242</v>
+        <v>0.8466595731796988</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6769814420017688</v>
+        <v>0.845105454073574</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1930,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.92869315478507</v>
+        <v>67.53856002214552</v>
       </c>
       <c r="C5" t="n">
-        <v>1.193577040731907</v>
+        <v>0.8192435160279274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5692869315478507</v>
+        <v>0.6753856002214552</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5177314799980063</v>
+        <v>0.6719244623049195</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1949,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.58340470073271</v>
+        <v>63.66205590013755</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9973624039441347</v>
+        <v>1.0144527777719</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6158340470073271</v>
+        <v>0.6366205590013754</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5717291702624619</v>
+        <v>0.6042327408800067</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1968,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.18988053529874</v>
+        <v>68.44445021150702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9264123807350794</v>
+        <v>0.937672417362531</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6018988053529875</v>
+        <v>0.6844445021150702</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6004495272151684</v>
+        <v>0.6706439141680071</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1987,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.85315616917102</v>
+        <v>73.85418558984074</v>
       </c>
       <c r="C8" t="n">
-        <v>1.46791806196173</v>
+        <v>0.673535979911685</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4485315616917102</v>
+        <v>0.7385418558984075</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3932233536201055</v>
+        <v>0.7192968426430261</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2006,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56.65196065709911</v>
+        <v>65.45082569918425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9665944159030915</v>
+        <v>1.065340429304827</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5665196065709911</v>
+        <v>0.6545082569918426</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5502243823679102</v>
+        <v>0.6342565272926388</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2025,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.91690239534944</v>
+        <v>74.94147873251498</v>
       </c>
       <c r="C10" t="n">
-        <v>1.026424790422122</v>
+        <v>0.5485553758839766</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5391690239534943</v>
+        <v>0.7494147873251499</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5027324461878937</v>
+        <v>0.7431345837400998</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2044,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.00419553802368</v>
+        <v>66.06008702497427</v>
       </c>
       <c r="C11" t="n">
-        <v>1.046629441995174</v>
+        <v>1.034183570606789</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5500419553802368</v>
+        <v>0.6606008702497427</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5288477877916982</v>
+        <v>0.6386422061849547</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2063,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54.98092544053149</v>
+        <v>63.85349354233168</v>
       </c>
       <c r="C12" t="n">
-        <v>1.04048747147123</v>
+        <v>0.9990058235048005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5498092544053149</v>
+        <v>0.6385349354233167</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5330302618874804</v>
+        <v>0.6249904594988521</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2082,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.33787489511155</v>
+        <v>71.26402477530083</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9023183077573776</v>
+        <v>0.7546146343151728</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5833787489511154</v>
+        <v>0.7126402477530083</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5728433655155307</v>
+        <v>0.70345202676498</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2101,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74.12538170745422</v>
+        <v>90.59256567963391</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6945900311072667</v>
+        <v>0.2991409300671269</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7412538170745422</v>
+        <v>0.9059256567963392</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7363763398255215</v>
+        <v>0.9054093377348874</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2120,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.17481120078892</v>
+        <v>81.33712229344545</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4673144168540603</v>
+        <v>0.5739310933772382</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7817481120078893</v>
+        <v>0.8133712229344544</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7731324279378898</v>
+        <v>0.7967532435576231</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2139,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.07699028538309</v>
+        <v>86.83621830638673</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2753596810468783</v>
+        <v>0.5895748196383163</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9007699028538309</v>
+        <v>0.8683621830638673</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8999851468045892</v>
+        <v>0.8645921515949644</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2158,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.91230027941419</v>
+        <v>73.78338336260117</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9123292647437322</v>
+        <v>0.7431999604728683</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6191230027941419</v>
+        <v>0.7378338336260118</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5974939178277022</v>
+        <v>0.7255539881502189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>60.4562323203488</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.942115346590678</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6045623232034879</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5984047921312772</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>55.56259137189768</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9551491394639016</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5556259137189767</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5533606810657934</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>66.90706667012691</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9404278059800466</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6690706667012691</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6580549804718655</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>61.24784816477651</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9777708490689596</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6124784816477652</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5992583029338127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63.42762480644296</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.061179799834887</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6342762480644296</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5875082075456414</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60.31271896815716</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.18169644040366</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6031271896815716</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.573674479512466</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52.40919039092033</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.28103862007459</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5240919039092033</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4658430707346667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>57.80482530125693</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9835219432910284</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5780482530125692</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5602195494003611</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>55.62055035078158</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9451170081893604</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5562055035078158</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5471609657883671</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>59.0416872118271</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9536437555837134</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.590416872118271</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5731022520743692</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>58.88917724201766</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.034850836296876</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5888917724201767</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.57956460296685</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>58.08190382269743</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.039267171670993</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5808190382269742</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5544719820939694</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>82.52086955769514</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4431844784567754</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8252086955769513</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8245852493126554</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>76.59824046920821</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4925738000315808</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7659824046920821</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7536624023086769</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>85.70039533213955</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4707022368287047</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8570039533213955</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.855330287365193</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>63.63872813201961</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9134826154510504</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6363872813201961</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6189467870470644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>53.97641848112873</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.058306010564168</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5397641848112873</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5283643991144866</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>59.46072197856383</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8159811183810234</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5946072197856382</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5758254228192289</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>66.22219915397191</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8662688473860423</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6622219915397192</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.655589301605828</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>58.1400358134586</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.010822686553001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5814003581345859</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5596417805567147</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58.18657600844298</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.119091286386053</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5818657600844298</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5268048189424618</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>58.63562833588526</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.051533394555251</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5863562833588526</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5729810972395205</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>37.09435202726667</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.557750449950496</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3709435202726667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2974963034924562</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>51.7003607297641</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9980817635854086</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5170036072976411</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5030909764731252</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>54.63758337009835</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.043839634458224</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5463758337009836</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5174260258606778</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>57.51537643059196</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9139640336235365</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5751537643059196</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5647686635719148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>56.35325565100044</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.093313607697686</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5635325565100044</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5400929877086303</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>56.36441491708406</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9979879503448805</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5636441491708406</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5362239256053154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>72.65322364380314</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6425018608570099</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7265322364380314</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7244177279353924</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>77.0854419155875</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4928638683311874</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.770854419155875</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7622064338875397</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>87.1026565973754</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.356528070072333</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8710265659737541</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.868954316385653</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>60.34188300360153</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9345889721830868</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6034188300360152</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5822589454132631</v>
       </c>
     </row>
   </sheetData>
